--- a/src/main/webapp/assets/movies.xlsx
+++ b/src/main/webapp/assets/movies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/whitneykugel/CVTC Courses/JavaWebProgramming/Submitted/Movies_wkugel1/src/main/webapp/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/whitneykugel/Coding/WhitneyKugel.com/BucketListMovies/src/main/webapp/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519D0117-85B0-824B-B2D8-CCF56DDB58E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB3FA08-2D91-964E-A41B-1D9A0177E718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50040" yWindow="-10300" windowWidth="29580" windowHeight="27420" xr2:uid="{E38C7BD9-DD28-C34F-B070-6A44E8CC0118}"/>
+    <workbookView xWindow="50040" yWindow="-6300" windowWidth="29580" windowHeight="27400" xr2:uid="{E38C7BD9-DD28-C34F-B070-6A44E8CC0118}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -578,9 +578,6 @@
     <t>sY1S34973zA</t>
   </si>
   <si>
-    <t>EXeTwQWrcwY</t>
-  </si>
-  <si>
     <t>9O1Iy9od7-A</t>
   </si>
   <si>
@@ -720,6 +717,9 @@
   </si>
   <si>
     <t>dfeUzm6KF4g</t>
+  </si>
+  <si>
+    <t>DarkKnight.jpg</t>
   </si>
 </sst>
 </file>
@@ -1123,7 +1123,7 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1161,7 +1161,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="46" x14ac:dyDescent="0.2">
@@ -1213,7 +1213,7 @@
         <v>7</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>179</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="61" x14ac:dyDescent="0.2">
@@ -1239,7 +1239,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="46" x14ac:dyDescent="0.2">
@@ -1265,7 +1265,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="61" x14ac:dyDescent="0.2">
@@ -1291,7 +1291,7 @@
         <v>12</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="61" x14ac:dyDescent="0.2">
@@ -1317,7 +1317,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="76" x14ac:dyDescent="0.2">
@@ -1343,7 +1343,7 @@
         <v>43</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="61" x14ac:dyDescent="0.2">
@@ -1369,7 +1369,7 @@
         <v>19</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1395,7 +1395,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="61" x14ac:dyDescent="0.2">
@@ -1421,7 +1421,7 @@
         <v>12</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="91" x14ac:dyDescent="0.2">
@@ -1447,7 +1447,7 @@
         <v>24</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="46" x14ac:dyDescent="0.2">
@@ -1473,7 +1473,7 @@
         <v>27</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="76" x14ac:dyDescent="0.2">
@@ -1499,7 +1499,7 @@
         <v>12</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="76" x14ac:dyDescent="0.2">
@@ -1525,7 +1525,7 @@
         <v>64</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -1551,7 +1551,7 @@
         <v>49</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -1577,7 +1577,7 @@
         <v>54</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -1603,7 +1603,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -1629,7 +1629,7 @@
         <v>60</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="46" x14ac:dyDescent="0.2">
@@ -1655,7 +1655,7 @@
         <v>62</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -1681,7 +1681,7 @@
         <v>5</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="61" x14ac:dyDescent="0.2">
@@ -1707,7 +1707,7 @@
         <v>77</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="61" x14ac:dyDescent="0.2">
@@ -1733,7 +1733,7 @@
         <v>81</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="61" x14ac:dyDescent="0.2">
@@ -1759,7 +1759,7 @@
         <v>85</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="76" x14ac:dyDescent="0.2">
@@ -1785,7 +1785,7 @@
         <v>89</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="46" x14ac:dyDescent="0.2">
@@ -1811,7 +1811,7 @@
         <v>93</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="61" x14ac:dyDescent="0.2">
@@ -1837,7 +1837,7 @@
         <v>97</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="91" x14ac:dyDescent="0.2">
@@ -1863,7 +1863,7 @@
         <v>54</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="76" x14ac:dyDescent="0.2">
@@ -1889,7 +1889,7 @@
         <v>103</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="46" x14ac:dyDescent="0.2">
@@ -1915,7 +1915,7 @@
         <v>12</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="61" x14ac:dyDescent="0.2">
@@ -1941,7 +1941,7 @@
         <v>110</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="76" x14ac:dyDescent="0.2">
@@ -1967,7 +1967,7 @@
         <v>43</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="76" x14ac:dyDescent="0.2">
@@ -1993,7 +1993,7 @@
         <v>115</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="61" x14ac:dyDescent="0.2">
@@ -2019,7 +2019,7 @@
         <v>119</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="61" x14ac:dyDescent="0.2">
@@ -2045,7 +2045,7 @@
         <v>122</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="46" x14ac:dyDescent="0.2">
@@ -2071,7 +2071,7 @@
         <v>97</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="46" x14ac:dyDescent="0.2">
@@ -2097,7 +2097,7 @@
         <v>128</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="46" x14ac:dyDescent="0.2">
@@ -2123,7 +2123,7 @@
         <v>12</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="46" x14ac:dyDescent="0.2">
@@ -2149,7 +2149,7 @@
         <v>2</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="61" x14ac:dyDescent="0.2">
@@ -2175,7 +2175,7 @@
         <v>139</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="76" x14ac:dyDescent="0.2">
@@ -2201,7 +2201,7 @@
         <v>7</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="46" x14ac:dyDescent="0.2">
@@ -2227,7 +2227,7 @@
         <v>146</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="61" x14ac:dyDescent="0.2">
@@ -2253,7 +2253,7 @@
         <v>64</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="61" x14ac:dyDescent="0.2">
@@ -2279,7 +2279,7 @@
         <v>24</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="31" x14ac:dyDescent="0.2">
@@ -2305,7 +2305,7 @@
         <v>156</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="61" x14ac:dyDescent="0.2">
@@ -2357,7 +2357,7 @@
         <v>27</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="61" x14ac:dyDescent="0.2">
@@ -2383,7 +2383,7 @@
         <v>161</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="61" x14ac:dyDescent="0.2">
@@ -2409,7 +2409,7 @@
         <v>165</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="61" x14ac:dyDescent="0.2">
@@ -2435,7 +2435,7 @@
         <v>177</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/assets/movies.xlsx
+++ b/src/main/webapp/assets/movies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/whitneykugel/Coding/WhitneyKugel.com/BucketListMovies/src/main/webapp/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB3FA08-2D91-964E-A41B-1D9A0177E718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D04116E-596A-A241-940F-25C2ACEF1A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="50040" yWindow="-6300" windowWidth="29580" windowHeight="27400" xr2:uid="{E38C7BD9-DD28-C34F-B070-6A44E8CC0118}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="163">
   <si>
     <t>The Shawshank Redemption</t>
   </si>
@@ -60,15 +60,6 @@
     <t>Action, Crime, Drama</t>
   </si>
   <si>
-    <t>12 Angry Men</t>
-  </si>
-  <si>
-    <t>Sidney Lumet </t>
-  </si>
-  <si>
-    <t>Approved</t>
-  </si>
-  <si>
     <t>Peter Jackson</t>
   </si>
   <si>
@@ -87,9 +78,6 @@
     <t>Frank Darabont </t>
   </si>
   <si>
-    <t>The Godfather: Part II</t>
-  </si>
-  <si>
     <t>Inception</t>
   </si>
   <si>
@@ -124,12 +112,6 @@
   </si>
   <si>
     <t>When the menace known as the Joker wreaks havoc and chaos on the people of Gotham, Batman must accept one of the greatest psychological and physical tests of his ability to fight injustice.</t>
-  </si>
-  <si>
-    <t>The early life and career of Vito Corleone in 1920s New York City is portrayed, while his son, Michael, expands and tightens his grip on the family crime syndicate.</t>
-  </si>
-  <si>
-    <t>A jury holdout attempts to prevent a miscarriage of justice by forcing his colleagues to reconsider the evidence.</t>
   </si>
   <si>
     <t>The lives of two mob hitmen, a boxer, a gangster and his wife, and a pair of diner bandits intertwine in four tales of violence and redemption.</t>
@@ -341,27 +323,6 @@
     <t>George Lucas</t>
   </si>
   <si>
-    <t>Hara-Kiri</t>
-  </si>
-  <si>
-    <t>Masaki Kobayashi</t>
-  </si>
-  <si>
-    <t>Not Rated</t>
-  </si>
-  <si>
-    <t>Action, Drama, Mystery</t>
-  </si>
-  <si>
-    <t>Seven Samurai</t>
-  </si>
-  <si>
-    <t>A poor village under attack by bandits recruits seven unemployed samurai to help them defend themselves.</t>
-  </si>
-  <si>
-    <t>Akira Kurosawa</t>
-  </si>
-  <si>
     <t>It''s a Wonderful Life</t>
   </si>
   <si>
@@ -401,42 +362,6 @@
     <t>Biography, Comedy, Drama</t>
   </si>
   <si>
-    <t>The Prestige</t>
-  </si>
-  <si>
-    <t>After a tragic accident, two stage magicians engage in a battle to create the ultimate illusion while sacrificing everything they have to outwit each other.</t>
-  </si>
-  <si>
-    <t>Drama, Mystery, Sci-Fi</t>
-  </si>
-  <si>
-    <t>The Departed</t>
-  </si>
-  <si>
-    <t>An undercover cop and a mole in the police attempt to identify each other while infiltrating an Irish gang in South Boston.</t>
-  </si>
-  <si>
-    <t>The Pianist</t>
-  </si>
-  <si>
-    <t>A Polish Jewish musician struggles to survive the destruction of the Warsaw ghetto of World War II.</t>
-  </si>
-  <si>
-    <t>Roman Polanski</t>
-  </si>
-  <si>
-    <t>Biography, Drama, Music</t>
-  </si>
-  <si>
-    <t>Gladiator</t>
-  </si>
-  <si>
-    <t>A former Roman General sets out to exact vengeance against the corrupt emperor who murdered his family and sent him into slavery.</t>
-  </si>
-  <si>
-    <t>Ridley Scott</t>
-  </si>
-  <si>
     <t>American History X</t>
   </si>
   <si>
@@ -461,15 +386,6 @@
     <t>Crime, Mystery, Thriller</t>
   </si>
   <si>
-    <t>Léon: The Professional</t>
-  </si>
-  <si>
-    <t>Mathilda, a 12-year-old girl, is reluctantly taken in by Léon, a professional assassin, after her family is murdered. An unusual relationship forms as she becomes his protégée and learns the assassin''s trade.</t>
-  </si>
-  <si>
-    <t>Luc Besson</t>
-  </si>
-  <si>
     <t>The Lion King</t>
   </si>
   <si>
@@ -491,63 +407,6 @@
     <t>James Cameron</t>
   </si>
   <si>
-    <t>Cinema Paradiso</t>
-  </si>
-  <si>
-    <t>Giuseppe Tornatore</t>
-  </si>
-  <si>
-    <t>A filmmaker recalls his childhood when falling in love with the pictures at the cinema of his home village and forms a deep friendship with the cinema''s projectionist.</t>
-  </si>
-  <si>
-    <t>Grave of the Fireflies</t>
-  </si>
-  <si>
-    <t>A young boy and his little sister struggle to survive in Japan during World War II.</t>
-  </si>
-  <si>
-    <t>Isao Takahata</t>
-  </si>
-  <si>
-    <t>Animation, Drama, War</t>
-  </si>
-  <si>
-    <t>Once Upon a Time in the West</t>
-  </si>
-  <si>
-    <t>A mysterious stranger with a harmonica joins forces with a notorious desperado to protect a beautiful widow from a ruthless assassin working for the railroad.</t>
-  </si>
-  <si>
-    <t>Psycho</t>
-  </si>
-  <si>
-    <t>Alfred Hitchcock</t>
-  </si>
-  <si>
-    <t>Horror, Mystery, Thriller</t>
-  </si>
-  <si>
-    <t>Rear Window</t>
-  </si>
-  <si>
-    <t>A wheelchair-bound photographer spies on his neighbors from his apartment window and becomes convinced one of them has committed murder.</t>
-  </si>
-  <si>
-    <t>A Phoenix secretary embezzles $40,000 from her employer''s client, goes on the run, and checks into a remote motel run by a young man under the domination of his mother.</t>
-  </si>
-  <si>
-    <t>Mystery, Thriller</t>
-  </si>
-  <si>
-    <t>Casablanca</t>
-  </si>
-  <si>
-    <t>A cynical expatriate American cafe owner struggles to decide whether or not to help his former lover and her fugitive husband escape the Nazis in French Morocco.</t>
-  </si>
-  <si>
-    <t>Michael Curtiz</t>
-  </si>
-  <si>
     <t>Back to the Future</t>
   </si>
   <si>
@@ -566,24 +425,12 @@
     <t>The real life of one of America''s foremost founding fathers and first Secretary of the Treasury, Alexander Hamilton. Captured live on Broadway from the Richard Rodgers Theater with the original Broadway cast.</t>
   </si>
   <si>
-    <t>When a ronin requesting seppuku at a feudal lord''s palace is told of the brutal suicide of another ronin who previously visited, he reveals how their pasts are intertwined - and in doing so challenges the clan''s integrity.</t>
-  </si>
-  <si>
     <t>qvsgGtivCgs</t>
   </si>
   <si>
-    <t>Drama, Romance, War</t>
-  </si>
-  <si>
     <t>sY1S34973zA</t>
   </si>
   <si>
-    <t>9O1Iy9od7-A</t>
-  </si>
-  <si>
-    <t>_13J_9B5jEk</t>
-  </si>
-  <si>
     <t>NmzuHjWmXOc</t>
   </si>
   <si>
@@ -647,12 +494,6 @@
     <t>1g3_CFmnU7k</t>
   </si>
   <si>
-    <t>pRp1tUHpWNs</t>
-  </si>
-  <si>
-    <t>wJ1TOratCTo</t>
-  </si>
-  <si>
     <t>iLR3gZrU2Xo</t>
   </si>
   <si>
@@ -665,49 +506,16 @@
     <t>oK5hMNxqsFA</t>
   </si>
   <si>
-    <t>RLtaA9fFNXU</t>
-  </si>
-  <si>
-    <t>iojhqm0JTW4</t>
-  </si>
-  <si>
-    <t>BFwGqLa_oAo</t>
-  </si>
-  <si>
-    <t>AxQajgTyLcM</t>
-  </si>
-  <si>
     <t>XfQYHqsiN5g</t>
   </si>
   <si>
     <t>x3t0Nc6fg7w</t>
   </si>
   <si>
-    <t>jawVxq1Iyl0</t>
-  </si>
-  <si>
     <t>lFzVJEksoDY</t>
   </si>
   <si>
     <t>CRRlbK5w8AE</t>
-  </si>
-  <si>
-    <t>JMyVSD6OvO8</t>
-  </si>
-  <si>
-    <t>4vPeTSRd580</t>
-  </si>
-  <si>
-    <t>c8CJ6L0I6W8</t>
-  </si>
-  <si>
-    <t>DTJQfFQ40lI</t>
-  </si>
-  <si>
-    <t>m01YktiEZCw</t>
-  </si>
-  <si>
-    <t>BkL9l7qovsE</t>
   </si>
   <si>
     <t>mxphAlJID9U</t>
@@ -1120,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1240CA0-280F-5E48-9320-D34F98AA3D4C}">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1143,10 +951,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D1" s="4">
         <v>142</v>
@@ -1161,15 +969,15 @@
         <v>2</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>181</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="46" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -1187,18 +995,18 @@
         <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="76" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" s="4">
         <v>152</v>
@@ -1213,605 +1021,605 @@
         <v>7</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>226</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="61" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>3</v>
+        <v>60</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="D4" s="4">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E4" s="4">
-        <v>1974</v>
+        <v>2003</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="61" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4">
+        <v>154</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1994</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="46" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4">
-        <v>96</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1957</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="61" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="76" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D6" s="4">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E6" s="4">
-        <v>2003</v>
+        <v>1993</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="61" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4">
+        <v>148</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2010</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="61" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="4">
-        <v>154</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1994</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="G7" s="4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="76" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>67</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>42</v>
+        <v>31</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="D8" s="4">
-        <v>195</v>
+        <v>139</v>
       </c>
       <c r="E8" s="4">
-        <v>1993</v>
+        <v>1999</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="61" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>18</v>
+      <c r="A9" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D9" s="4">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="E9" s="4">
-        <v>2010</v>
+        <v>2001</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="91" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="D10" s="4">
+        <v>142</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1994</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="4">
-        <v>139</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1999</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>2</v>
-      </c>
       <c r="H10" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="61" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="46" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D11" s="4">
         <v>178</v>
       </c>
       <c r="E11" s="4">
-        <v>2001</v>
+        <v>1966</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2">
+        <v>179</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2002</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="91" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="4">
-        <v>142</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1994</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>24</v>
+      <c r="G12" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="46" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>25</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="4">
-        <v>178</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1966</v>
-      </c>
-      <c r="F13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="2">
+        <v>136</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1999</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>27</v>
+      <c r="G13" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="2">
+        <v>146</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1990</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="2">
-        <v>179</v>
-      </c>
-      <c r="E14" s="2">
-        <v>2002</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="76" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="B15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>69</v>
+      <c r="C15" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="D15" s="2">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="E15" s="2">
-        <v>1999</v>
+        <v>1980</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>48</v>
+      <c r="B16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="D16" s="2">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E16" s="2">
-        <v>1990</v>
+        <v>1975</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="2">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E17" s="2">
-        <v>1980</v>
+        <v>2019</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="46" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="2">
+        <v>169</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2014</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="2">
+        <v>130</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2002</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="61" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="2">
-        <v>133</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1975</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="C20" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="2">
+        <v>125</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2001</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="61" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="2">
+        <v>169</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1998</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="2">
-        <v>132</v>
-      </c>
-      <c r="E19" s="2">
-        <v>2019</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="46" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="2">
-        <v>169</v>
-      </c>
-      <c r="E20" s="2">
-        <v>2014</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="2">
-        <v>130</v>
-      </c>
-      <c r="E21" s="2">
-        <v>2002</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="G21" s="2" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="61" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>78</v>
       </c>
       <c r="D22" s="2">
-        <v>125</v>
+        <v>189</v>
       </c>
       <c r="E22" s="2">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>77</v>
+        <v>4</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="61" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="76" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="D23" s="2">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="E23" s="2">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="61" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="46" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D24" s="2">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="E24" s="2">
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>85</v>
+      <c r="G24" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="61" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D25" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E25" s="2">
-        <v>1997</v>
+        <v>1991</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="46" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>90</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="91" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>92</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>92</v>
+        <v>126</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="D26" s="2">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E26" s="2">
-        <v>1995</v>
+        <v>1977</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>93</v>
+        <v>47</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>199</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="61" x14ac:dyDescent="0.2">
@@ -1825,101 +1633,101 @@
         <v>96</v>
       </c>
       <c r="D27" s="2">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="E27" s="2">
-        <v>1991</v>
+        <v>1946</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>97</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="91" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="76" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>98</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C28" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>99</v>
       </c>
       <c r="D28" s="2">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="E28" s="2">
-        <v>1977</v>
+        <v>2020</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>54</v>
+        <v>6</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="76" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>175</v>
+        <v>105</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>101</v>
       </c>
       <c r="D29" s="2">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="E29" s="2">
-        <v>1962</v>
+        <v>2014</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="H29" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="61" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="46" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
+      <c r="B30" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="2">
+        <v>112</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2011</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D30" s="2">
-        <v>207</v>
-      </c>
-      <c r="E30" s="2">
-        <v>1954</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="H30" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="61" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="46" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
         <v>107</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -1929,513 +1737,123 @@
         <v>109</v>
       </c>
       <c r="D31" s="2">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="E31" s="2">
-        <v>1946</v>
+        <v>1998</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="61" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>111</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C32" s="11" t="s">
         <v>112</v>
       </c>
+      <c r="C32" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="D32" s="2">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="E32" s="2">
-        <v>2020</v>
+        <v>1995</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>43</v>
+        <v>4</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="46" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" s="2">
+        <v>88</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1994</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D33" s="2">
-        <v>106</v>
-      </c>
-      <c r="E33" s="2">
-        <v>2014</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="H33" s="2" t="s">
-        <v>206</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="61" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>135</v>
+        <v>120</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="D34" s="2">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="E34" s="2">
-        <v>2011</v>
+        <v>1991</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>207</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="61" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>15</v>
+      <c r="A35" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="D35" s="2">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="E35" s="2">
-        <v>2006</v>
+        <v>1985</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>122</v>
+        <v>47</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="46" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="2">
-        <v>151</v>
-      </c>
-      <c r="E36" s="2">
-        <v>2006</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="46" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D37" s="2">
-        <v>150</v>
-      </c>
-      <c r="E37" s="2">
-        <v>2002</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G37" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="46" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D38" s="2">
-        <v>155</v>
-      </c>
-      <c r="E38" s="2">
-        <v>2000</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="46" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="D39" s="2">
-        <v>119</v>
-      </c>
-      <c r="E39" s="2">
-        <v>1998</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="61" x14ac:dyDescent="0.2">
-      <c r="A40" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D40" s="2">
-        <v>106</v>
-      </c>
-      <c r="E40" s="2">
-        <v>1995</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="76" x14ac:dyDescent="0.2">
-      <c r="A41" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D41" s="2">
-        <v>110</v>
-      </c>
-      <c r="E41" s="2">
-        <v>1994</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="46" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D42" s="2">
-        <v>88</v>
-      </c>
-      <c r="E42" s="2">
-        <v>1994</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="61" x14ac:dyDescent="0.2">
-      <c r="A43" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D43" s="2">
-        <v>137</v>
-      </c>
-      <c r="E43" s="2">
-        <v>1991</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="61" x14ac:dyDescent="0.2">
-      <c r="A44" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="D44" s="2">
-        <v>155</v>
-      </c>
-      <c r="E44" s="2">
-        <v>1988</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="31" x14ac:dyDescent="0.2">
-      <c r="A45" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D45" s="2">
-        <v>89</v>
-      </c>
-      <c r="E45" s="2">
-        <v>1988</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="61" x14ac:dyDescent="0.2">
-      <c r="A46" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D46" s="2">
-        <v>116</v>
-      </c>
-      <c r="E46" s="2">
-        <v>1985</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="61" x14ac:dyDescent="0.2">
-      <c r="A47" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D47" s="2">
-        <v>165</v>
-      </c>
-      <c r="E47" s="2">
-        <v>1968</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="61" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="D48" s="2">
-        <v>109</v>
-      </c>
-      <c r="E48" s="2">
-        <v>1960</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="61" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D49" s="2">
-        <v>112</v>
-      </c>
-      <c r="E49" s="2">
-        <v>1954</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="61" x14ac:dyDescent="0.2">
-      <c r="A50" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="D50" s="2">
-        <v>102</v>
-      </c>
-      <c r="E50" s="2">
-        <v>1942</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>222</v>
       </c>
     </row>
   </sheetData>
